--- a/fastqFiles/fastq_0684.xlsx
+++ b/fastqFiles/fastq_0684.xlsx
@@ -8,19 +8,19 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hollybrown/database_files/fastqFiles/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{304E5CA1-B5C4-484A-89DB-E9CB62C5FC82}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C3E8C23-65B6-054A-BFDB-01C4F8452A8D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="22240" windowHeight="10120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="0" iterateDelta="1E-4"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="28">
   <si>
     <t>libraryDate</t>
   </si>
@@ -101,6 +101,9 @@
   </si>
   <si>
     <t>S.GISH</t>
+  </si>
+  <si>
+    <t>fullRNASEQ</t>
   </si>
 </sst>
 </file>
@@ -467,7 +470,7 @@
   <dimension ref="A1:F19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E2" activeCellId="1" sqref="B3:B19 E2:E19"/>
+      <selection activeCell="D20" sqref="D20:F24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -506,7 +509,7 @@
         <v>684</v>
       </c>
       <c r="E2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="F2" t="s">
         <v>7</v>
@@ -526,7 +529,7 @@
         <v>684</v>
       </c>
       <c r="E3" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="F3" t="s">
         <v>9</v>
@@ -546,7 +549,7 @@
         <v>684</v>
       </c>
       <c r="E4" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="F4" t="s">
         <v>10</v>
@@ -566,7 +569,7 @@
         <v>684</v>
       </c>
       <c r="E5" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="F5" t="s">
         <v>11</v>
@@ -586,7 +589,7 @@
         <v>684</v>
       </c>
       <c r="E6" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="F6" t="s">
         <v>12</v>
@@ -606,7 +609,7 @@
         <v>684</v>
       </c>
       <c r="E7" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="F7" t="s">
         <v>13</v>
@@ -626,7 +629,7 @@
         <v>684</v>
       </c>
       <c r="E8" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="F8" t="s">
         <v>14</v>
@@ -646,7 +649,7 @@
         <v>684</v>
       </c>
       <c r="E9" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="F9" t="s">
         <v>15</v>
@@ -666,7 +669,7 @@
         <v>684</v>
       </c>
       <c r="E10" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="F10" t="s">
         <v>16</v>
@@ -686,7 +689,7 @@
         <v>684</v>
       </c>
       <c r="E11" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="F11" t="s">
         <v>17</v>
@@ -706,7 +709,7 @@
         <v>684</v>
       </c>
       <c r="E12" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="F12" t="s">
         <v>18</v>
@@ -726,7 +729,7 @@
         <v>684</v>
       </c>
       <c r="E13" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="F13" t="s">
         <v>19</v>
@@ -746,7 +749,7 @@
         <v>684</v>
       </c>
       <c r="E14" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="F14" t="s">
         <v>20</v>
@@ -766,7 +769,7 @@
         <v>684</v>
       </c>
       <c r="E15" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="F15" t="s">
         <v>21</v>
@@ -786,7 +789,7 @@
         <v>684</v>
       </c>
       <c r="E16" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="F16" t="s">
         <v>22</v>
@@ -806,7 +809,7 @@
         <v>684</v>
       </c>
       <c r="E17" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="F17" t="s">
         <v>23</v>
@@ -826,7 +829,7 @@
         <v>684</v>
       </c>
       <c r="E18" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="F18" t="s">
         <v>24</v>
@@ -846,7 +849,7 @@
         <v>684</v>
       </c>
       <c r="E19" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="F19" t="s">
         <v>25</v>

--- a/fastqFiles/fastq_0684.xlsx
+++ b/fastqFiles/fastq_0684.xlsx
@@ -49,61 +49,61 @@
     <t xml:space="preserve">fullRNASEQ</t>
   </si>
   <si>
-    <t xml:space="preserve">sequence/run_0684_samples/run_684_s_6_withindex_sequence_TGGCATA.fastq.gz</t>
+    <t xml:space="preserve">run_684_s_6_withindex_sequence_TGGCATA.fastq.gz</t>
   </si>
   <si>
     <t xml:space="preserve">03.26.12</t>
   </si>
   <si>
-    <t xml:space="preserve">sequence/run_0684_samples/run_684_s_6_withindex_sequence_CATTTAG.fastq.gz</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sequence/run_0684_samples/run_684_s_6_withindex_sequence_TCCGGGA.fastq.gz</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sequence/run_0684_samples/run_684_s_6_withindex_sequence_CGAAAGT.fastq.gz</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sequence/run_0684_samples/run_684_s_6_withindex_sequence_GCCTCCC.fastq.gz</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sequence/run_0684_samples/run_684_s_6_withindex_sequence_AGTTATG.fastq.gz</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sequence/run_0684_samples/run_684_s_6_withindex_sequence_CTGCAAT.fastq.gz</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sequence/run_0684_samples/run_684_s_6_withindex_sequence_CAAGCCG.fastq.gz</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sequence/run_0684_samples/run_684_s_6_withindex_sequence_GGGTCAA.fastq.gz</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sequence/run_0684_samples/run_684_s_6_withindex_sequence_GCAACGC.fastq.gz</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sequence/run_0684_samples/run_684_s_6_withindex_sequence_TGATTAC.fastq.gz</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sequence/run_0684_samples/run_684_s_6_withindex_sequence_TGCTGGG.fastq.gz</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sequence/run_0684_samples/run_684_s_6_withindex_sequence_GACACAG.fastq.gz</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sequence/run_0684_samples/run_684_s_6_withindex_sequence_AGGACCT.fastq.gz</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sequence/run_0684_samples/run_684_s_6_withindex_sequence_TTTTCGG.fastq.gz</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sequence/run_0684_samples/run_684_s_6_withindex_sequence_CAGAGTC.fastq.gz</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sequence/run_0684_samples/run_684_s_6_withindex_sequence_GTATCCT.fastq.gz</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sequence/run_0684_samples/run_684_s_6_withindex_sequence_CCGGCAG.fastq.gz</t>
+    <t xml:space="preserve">run_684_s_6_withindex_sequence_CATTTAG.fastq.gz</t>
+  </si>
+  <si>
+    <t xml:space="preserve">run_684_s_6_withindex_sequence_TCCGGGA.fastq.gz</t>
+  </si>
+  <si>
+    <t xml:space="preserve">run_684_s_6_withindex_sequence_CGAAAGT.fastq.gz</t>
+  </si>
+  <si>
+    <t xml:space="preserve">run_684_s_6_withindex_sequence_GCCTCCC.fastq.gz</t>
+  </si>
+  <si>
+    <t xml:space="preserve">run_684_s_6_withindex_sequence_AGTTATG.fastq.gz</t>
+  </si>
+  <si>
+    <t xml:space="preserve">run_684_s_6_withindex_sequence_CTGCAAT.fastq.gz</t>
+  </si>
+  <si>
+    <t xml:space="preserve">run_684_s_6_withindex_sequence_CAAGCCG.fastq.gz</t>
+  </si>
+  <si>
+    <t xml:space="preserve">run_684_s_6_withindex_sequence_GGGTCAA.fastq.gz</t>
+  </si>
+  <si>
+    <t xml:space="preserve">run_684_s_6_withindex_sequence_GCAACGC.fastq.gz</t>
+  </si>
+  <si>
+    <t xml:space="preserve">run_684_s_6_withindex_sequence_TGATTAC.fastq.gz</t>
+  </si>
+  <si>
+    <t xml:space="preserve">run_684_s_6_withindex_sequence_TGCTGGG.fastq.gz</t>
+  </si>
+  <si>
+    <t xml:space="preserve">run_684_s_6_withindex_sequence_GACACAG.fastq.gz</t>
+  </si>
+  <si>
+    <t xml:space="preserve">run_684_s_6_withindex_sequence_AGGACCT.fastq.gz</t>
+  </si>
+  <si>
+    <t xml:space="preserve">run_684_s_6_withindex_sequence_TTTTCGG.fastq.gz</t>
+  </si>
+  <si>
+    <t xml:space="preserve">run_684_s_6_withindex_sequence_CAGAGTC.fastq.gz</t>
+  </si>
+  <si>
+    <t xml:space="preserve">run_684_s_6_withindex_sequence_GTATCCT.fastq.gz</t>
+  </si>
+  <si>
+    <t xml:space="preserve">run_684_s_6_withindex_sequence_CCGGCAG.fastq.gz</t>
   </si>
 </sst>
 </file>
@@ -222,7 +222,7 @@
   <dimension ref="A1:F19"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C2" activeCellId="0" sqref="C2:C19"/>
+      <selection pane="topLeft" activeCell="F2" activeCellId="0" sqref="F2:F19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>

--- a/fastqFiles/fastq_0684.xlsx
+++ b/fastqFiles/fastq_0684.xlsx
@@ -442,7 +442,7 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>fullRNASEQ</t>
+          <t>fullRNASeq</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
@@ -477,7 +477,7 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>fullRNASEQ</t>
+          <t>fullRNASeq</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
@@ -510,7 +510,7 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>fullRNASEQ</t>
+          <t>fullRNASeq</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
@@ -543,7 +543,7 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>fullRNASEQ</t>
+          <t>fullRNASeq</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
@@ -576,7 +576,7 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>fullRNASEQ</t>
+          <t>fullRNASeq</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
@@ -611,7 +611,7 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>fullRNASEQ</t>
+          <t>fullRNASeq</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
@@ -646,7 +646,7 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>fullRNASEQ</t>
+          <t>fullRNASeq</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
@@ -683,7 +683,7 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>fullRNASEQ</t>
+          <t>fullRNASeq</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
@@ -718,7 +718,7 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>fullRNASEQ</t>
+          <t>fullRNASeq</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
@@ -753,7 +753,7 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>fullRNASEQ</t>
+          <t>fullRNASeq</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
@@ -788,7 +788,7 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>fullRNASEQ</t>
+          <t>fullRNASeq</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
@@ -821,7 +821,7 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>fullRNASEQ</t>
+          <t>fullRNASeq</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
@@ -854,7 +854,7 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>fullRNASEQ</t>
+          <t>fullRNASeq</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
@@ -889,7 +889,7 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>fullRNASEQ</t>
+          <t>fullRNASeq</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
@@ -924,7 +924,7 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>fullRNASEQ</t>
+          <t>fullRNASeq</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
@@ -959,7 +959,7 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>fullRNASEQ</t>
+          <t>fullRNASeq</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
@@ -994,7 +994,7 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>fullRNASEQ</t>
+          <t>fullRNASeq</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
@@ -1029,7 +1029,7 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>fullRNASEQ</t>
+          <t>fullRNASeq</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
